--- a/data/trans_dic/DC-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/DC-Estudios-trans_dic.xlsx
@@ -697,7 +697,7 @@
         <v>0.2167889474604407</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.4590287335539788</v>
+        <v>0.4590287335539787</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.2511613596124894</v>
+        <v>0.250103106140675</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1503009509416414</v>
+        <v>0.1519445291632747</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.1316676670636879</v>
+        <v>0.1299711962459212</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.2927536094774625</v>
+        <v>0.2939428100385587</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.3189128937673017</v>
+        <v>0.3211917809694392</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.2868106592789784</v>
+        <v>0.2870025990397267</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.2323180561748148</v>
+        <v>0.2293508759619311</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.5227791480312798</v>
+        <v>0.5218033333244256</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.2957446827319801</v>
+        <v>0.2957673173243009</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.2366712351279665</v>
+        <v>0.237263621511578</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.1945312904506472</v>
+        <v>0.1961617109912769</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.4362903700056573</v>
+        <v>0.4356744517899387</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.3024323808275984</v>
+        <v>0.3036999161363823</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1986607312440172</v>
+        <v>0.1987285482350434</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1836496905844077</v>
+        <v>0.1808487852131938</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.364661440151467</v>
+        <v>0.3674401852120539</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.3717830167300207</v>
+        <v>0.3737485672312807</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.3371092872207994</v>
+        <v>0.3375350673906417</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.2928030295440968</v>
+        <v>0.293521786701248</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.5776421653728776</v>
+        <v>0.5774406371374075</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.3351987789421912</v>
+        <v>0.334678824091739</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.2730980943084848</v>
+        <v>0.2733115194840829</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.2366330347343364</v>
+        <v>0.2375192673845088</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.4821129272799685</v>
+        <v>0.4819703947154974</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.1149376197564621</v>
+        <v>0.1141524202649051</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.06884026046859358</v>
+        <v>0.06861700385225437</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.06427271700779436</v>
+        <v>0.06524362224329258</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1829661162670252</v>
+        <v>0.1836861461001844</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.2200646894511339</v>
+        <v>0.2200957602013414</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.1795167364074292</v>
+        <v>0.1770562201249825</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.143424457460756</v>
+        <v>0.1410736239396295</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.3256546714893466</v>
+        <v>0.3252434763706952</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.1702872607825335</v>
+        <v>0.1704612874928292</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.1237530493605023</v>
+        <v>0.124135463655113</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.1074276958181551</v>
+        <v>0.1066149898236399</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.2574936944367051</v>
+        <v>0.257243129404105</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1461279438043162</v>
+        <v>0.1474205109338887</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.09594489833351817</v>
+        <v>0.0930954366504395</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.08897943204197054</v>
+        <v>0.0888082488551631</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.2199370886797724</v>
+        <v>0.219596027046059</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.2630364963216636</v>
+        <v>0.2633549497928033</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.216905715911391</v>
+        <v>0.2159183194465506</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.1784074162089701</v>
+        <v>0.1758023293860941</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.3644450060395859</v>
+        <v>0.3638878186812338</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.196231591355036</v>
+        <v>0.1968682697867405</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.1474629304488573</v>
+        <v>0.1472995153709137</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.1277113541205892</v>
+        <v>0.127639019577529</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.284237075470566</v>
+        <v>0.2837961838482365</v>
       </c>
     </row>
     <row r="10">
@@ -969,7 +969,7 @@
         <v>0.106717831957903</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.2513287396655057</v>
+        <v>0.2513287396655056</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.09699641033482166</v>
+        <v>0.09903345618299761</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.03228753897603719</v>
+        <v>0.03153261212238868</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.05759002310256214</v>
+        <v>0.05889744551497272</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1382381261997734</v>
+        <v>0.1392989595021666</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.1855324656154045</v>
+        <v>0.1852881378677087</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.1543736715296941</v>
+        <v>0.1541136318642531</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.1050760447962109</v>
+        <v>0.1037901616080881</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.3049676822896142</v>
+        <v>0.3037430449568267</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.1483709362873386</v>
+        <v>0.1483200627192226</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.09806000845324052</v>
+        <v>0.09964709585352231</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.08845590034097067</v>
+        <v>0.08708462775806612</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.227489512257139</v>
+        <v>0.2294965350413178</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1539628961509259</v>
+        <v>0.1581677050199493</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.0761626519582787</v>
+        <v>0.07466529622167405</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1090359663191855</v>
+        <v>0.109907192767409</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1942995712910541</v>
+        <v>0.1947815074231946</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.2636493880027899</v>
+        <v>0.263080608658282</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.229820440663155</v>
+        <v>0.2302388796157926</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.1644890567694745</v>
+        <v>0.163861812678441</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.3684770243191094</v>
+        <v>0.3649891033138272</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.1960742814459453</v>
+        <v>0.1966517808886039</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.1428981689288964</v>
+        <v>0.1432792729132172</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.12669940588613</v>
+        <v>0.1258134886979238</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.2710556190259714</v>
+        <v>0.2751915752180213</v>
       </c>
     </row>
     <row r="13">
@@ -1081,7 +1081,7 @@
         <v>0.09524205100093092</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.2139180471222535</v>
+        <v>0.2139180471222536</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.2786450258329519</v>
@@ -1105,7 +1105,7 @@
         <v>0.1406472400040466</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.3034828991981664</v>
+        <v>0.3034828991981665</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1618905206920286</v>
+        <v>0.1623923853002687</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.0928826450864035</v>
+        <v>0.09256464926712311</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.08537836943668668</v>
+        <v>0.08503339401429698</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1992883505142336</v>
+        <v>0.2000810148817291</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.2616413171511848</v>
+        <v>0.2639099896210026</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.2241272035757983</v>
+        <v>0.2231014905042583</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.1708806605420764</v>
+        <v>0.1716796385746892</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.3737940681500769</v>
+        <v>0.3748246083830086</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.2176820189290559</v>
+        <v>0.2171723100018029</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.1632977968223991</v>
+        <v>0.1628008373719223</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.1321198422673265</v>
+        <v>0.1330028257614704</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.2932017232817064</v>
+        <v>0.2932025785050247</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1892878605079261</v>
+        <v>0.1891724274415356</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1139685821170906</v>
+        <v>0.1137139362435771</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1060473074350896</v>
+        <v>0.1052575846233555</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.2298262621311045</v>
+        <v>0.2282105437592134</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.2932478552859332</v>
+        <v>0.2941929418440574</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.2530957943424131</v>
+        <v>0.2523485561312336</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.1972744361476038</v>
+        <v>0.1993147470159421</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.4030545687180497</v>
+        <v>0.4025912326035296</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.2389368517180863</v>
+        <v>0.2376845745391781</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.1819138597001202</v>
+        <v>0.1810787522026914</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.1491174827411686</v>
+        <v>0.1497220526692346</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.3132344022903217</v>
+        <v>0.3142772748815599</v>
       </c>
     </row>
     <row r="16">
@@ -1463,40 +1463,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>259129</v>
+        <v>258037</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>146490</v>
+        <v>148092</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>99323</v>
+        <v>98043</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>169366</v>
+        <v>170054</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>419406</v>
+        <v>422403</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>383694</v>
+        <v>383951</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>231077</v>
+        <v>228126</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>429744</v>
+        <v>428942</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>694064</v>
+        <v>694117</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>547288</v>
+        <v>548658</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>340237</v>
+        <v>343088</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>611054</v>
+        <v>610191</v>
       </c>
     </row>
     <row r="7">
@@ -1507,40 +1507,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>312026</v>
+        <v>313334</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>193623</v>
+        <v>193689</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>138536</v>
+        <v>136423</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>210967</v>
+        <v>212575</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>488937</v>
+        <v>491522</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>450984</v>
+        <v>451553</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>291239</v>
+        <v>291954</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>474844</v>
+        <v>474678</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>786656</v>
+        <v>785436</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>631523</v>
+        <v>632016</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>413873</v>
+        <v>415423</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>675231</v>
+        <v>675032</v>
       </c>
     </row>
     <row r="8">
@@ -1643,40 +1643,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>194637</v>
+        <v>193307</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>135199</v>
+        <v>134761</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>133455</v>
+        <v>135471</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>408118</v>
+        <v>409724</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>349391</v>
+        <v>349440</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>315555</v>
+        <v>311230</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>285171</v>
+        <v>280497</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>707124</v>
+        <v>706231</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>558727</v>
+        <v>559298</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>460579</v>
+        <v>462002</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>436660</v>
+        <v>433356</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>1133477</v>
+        <v>1132374</v>
       </c>
     </row>
     <row r="11">
@@ -1687,40 +1687,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>247455</v>
+        <v>249644</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>188432</v>
+        <v>182835</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>184756</v>
+        <v>184400</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>490584</v>
+        <v>489823</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>417616</v>
+        <v>418122</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>381278</v>
+        <v>379542</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>354727</v>
+        <v>349548</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>791353</v>
+        <v>790143</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>643853</v>
+        <v>645942</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>548822</v>
+        <v>548213</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>519106</v>
+        <v>518812</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>1251200</v>
+        <v>1249259</v>
       </c>
     </row>
     <row r="12">
@@ -1823,40 +1823,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>53485</v>
+        <v>54608</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>15536</v>
+        <v>15173</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>31495</v>
+        <v>32210</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>98368</v>
+        <v>99123</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>88390</v>
+        <v>88273</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>70801</v>
+        <v>70681</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>57701</v>
+        <v>56995</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>224114</v>
+        <v>223214</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>152499</v>
+        <v>152446</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>92158</v>
+        <v>93650</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>96950</v>
+        <v>95447</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>329055</v>
+        <v>331958</v>
       </c>
     </row>
     <row r="15">
@@ -1867,40 +1867,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>84896</v>
+        <v>87215</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>36648</v>
+        <v>35928</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>59630</v>
+        <v>60107</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>138261</v>
+        <v>138604</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>125606</v>
+        <v>125335</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>105403</v>
+        <v>105595</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>90328</v>
+        <v>89983</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>270785</v>
+        <v>268222</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>201529</v>
+        <v>202123</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>134298</v>
+        <v>134656</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>138866</v>
+        <v>137895</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>392072</v>
+        <v>398055</v>
       </c>
     </row>
     <row r="16">
@@ -2003,40 +2003,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>530441</v>
+        <v>532086</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>317638</v>
+        <v>316551</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>288376</v>
+        <v>287210</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>701631</v>
+        <v>704422</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>884138</v>
+        <v>891804</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>796600</v>
+        <v>792954</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>603568</v>
+        <v>606390</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>1393619</v>
+        <v>1397461</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>1448835</v>
+        <v>1445443</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>1138841</v>
+        <v>1135375</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>912911</v>
+        <v>919012</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>2125416</v>
+        <v>2125423</v>
       </c>
     </row>
     <row r="19">
@@ -2047,40 +2047,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>620210</v>
+        <v>619832</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>389748</v>
+        <v>388877</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>358187</v>
+        <v>355520</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>809145</v>
+        <v>803457</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>990942</v>
+        <v>994136</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>899561</v>
+        <v>896905</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>696793</v>
+        <v>704000</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>1502711</v>
+        <v>1500984</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>1590302</v>
+        <v>1581967</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>1268669</v>
+        <v>1262845</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>1030360</v>
+        <v>1034537</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>2270633</v>
+        <v>2278193</v>
       </c>
     </row>
     <row r="20">
